--- a/input_data/WWTP_processdata_perweek_20180125_NGS.xlsx
+++ b/input_data/WWTP_processdata_perweek_20180125_NGS.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MWP-WKS050217\Desktop\RUG_Asala\PhD\Code\Oosterhorn_RFE\input_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MWP-WKS050217\Desktop\RUG_Asala\PhD\Code\Oosterhorn_SWWTP_RFE\input_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Overall_ZAWZI_processdata" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="75">
   <si>
     <t>Sludge_load_kg_COD_per_kg_dw_per_d</t>
   </si>
@@ -246,6 +246,9 @@
   </si>
   <si>
     <t>Year</t>
+  </si>
+  <si>
+    <t>Sample_Date</t>
   </si>
 </sst>
 </file>
@@ -287,10 +290,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="11" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="11" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="15" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -571,15 +578,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BV33"/>
+  <dimension ref="A1:BW33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+    <sheetView tabSelected="1" topLeftCell="AZ1" workbookViewId="0">
+      <selection activeCell="BR26" sqref="BR26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="70" max="74" width="8.7265625" style="3"/>
+    <col min="75" max="75" width="23" style="3" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:74" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:75" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>73</v>
       </c>
@@ -787,23 +798,26 @@
       <c r="BQ1" t="s">
         <v>66</v>
       </c>
-      <c r="BR1" t="s">
+      <c r="BR1" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="BS1" t="s">
+      <c r="BS1" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="BT1" t="s">
+      <c r="BT1" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="BU1" t="s">
+      <c r="BU1" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="BV1" t="s">
+      <c r="BV1" s="3" t="s">
         <v>71</v>
       </c>
+      <c r="BW1" s="3" t="s">
+        <v>74</v>
+      </c>
     </row>
-    <row r="2" spans="1:74" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:75" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>2014</v>
       </c>
@@ -996,23 +1010,26 @@
       <c r="BQ2" s="1">
         <v>79.7128952380952</v>
       </c>
-      <c r="BR2" s="1">
+      <c r="BR2" s="4">
         <v>23.7996441397297</v>
       </c>
-      <c r="BS2" s="1">
+      <c r="BS2" s="4">
         <v>6.2766193148687996</v>
       </c>
-      <c r="BT2" s="2">
+      <c r="BT2" s="5">
         <v>9.0225333333333393E-2</v>
       </c>
-      <c r="BU2" s="1">
+      <c r="BU2" s="4">
         <v>2.8719999999999999</v>
       </c>
-      <c r="BV2" s="1">
+      <c r="BV2" s="4">
         <v>0.20413532648715499</v>
       </c>
+      <c r="BW2" s="6">
+        <v>41926</v>
+      </c>
     </row>
-    <row r="3" spans="1:74" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:75" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>2014</v>
       </c>
@@ -1220,23 +1237,26 @@
       <c r="BQ3" s="1">
         <v>83.033209523809504</v>
       </c>
-      <c r="BR3" s="1">
+      <c r="BR3" s="4">
         <v>20.5719868436124</v>
       </c>
-      <c r="BS3" s="1">
+      <c r="BS3" s="4">
         <v>10.0001412900875</v>
       </c>
-      <c r="BT3" s="1">
+      <c r="BT3" s="4">
         <v>0.1943018</v>
       </c>
-      <c r="BU3" s="1">
+      <c r="BU3" s="4">
         <v>4.6890166666666699</v>
       </c>
-      <c r="BV3" s="1">
+      <c r="BV3" s="4">
         <v>0.22597802710363099</v>
       </c>
+      <c r="BW3" s="6">
+        <v>41957</v>
+      </c>
     </row>
-    <row r="4" spans="1:74" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:75" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>2014</v>
       </c>
@@ -1444,23 +1464,26 @@
       <c r="BQ4" s="1">
         <v>133.27511998372</v>
       </c>
-      <c r="BR4" s="1">
+      <c r="BR4" s="4">
         <v>16.596678847118898</v>
       </c>
-      <c r="BS4" s="1">
+      <c r="BS4" s="4">
         <v>4.6935315597667602</v>
       </c>
-      <c r="BT4" s="1">
+      <c r="BT4" s="4">
         <v>0.16901733333333299</v>
       </c>
-      <c r="BU4" s="1">
+      <c r="BU4" s="4">
         <v>6.53318333333333</v>
       </c>
-      <c r="BV4" s="1">
+      <c r="BV4" s="4">
         <v>0.25352841195408998</v>
       </c>
+      <c r="BW4" s="6">
+        <v>41990</v>
+      </c>
     </row>
-    <row r="5" spans="1:74" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:75" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>2015</v>
       </c>
@@ -1656,23 +1679,26 @@
       <c r="BQ5" s="1">
         <v>49.522034632034597</v>
       </c>
-      <c r="BR5" s="1">
+      <c r="BR5" s="4">
         <v>17.492251380490401</v>
       </c>
-      <c r="BS5" s="1">
+      <c r="BS5" s="4">
         <v>7.3013090379008698</v>
       </c>
-      <c r="BT5" s="1">
+      <c r="BT5" s="4">
         <v>0.1232154</v>
       </c>
-      <c r="BU5" s="1">
+      <c r="BU5" s="4">
         <v>6.94281666666667</v>
       </c>
-      <c r="BV5" s="1">
+      <c r="BV5" s="4">
         <v>0.30267008655745697</v>
       </c>
+      <c r="BW5" s="6">
+        <v>42011</v>
+      </c>
     </row>
-    <row r="6" spans="1:74" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:75" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>2015</v>
       </c>
@@ -1868,20 +1894,24 @@
       <c r="BQ6" s="1">
         <v>81.495282828282797</v>
       </c>
-      <c r="BS6" s="1">
+      <c r="BR6" s="4"/>
+      <c r="BS6" s="4">
         <v>6.6736571428571398</v>
       </c>
-      <c r="BT6" s="1">
+      <c r="BT6" s="4">
         <v>0.16361893333333299</v>
       </c>
-      <c r="BU6" s="1">
+      <c r="BU6" s="4">
         <v>6.5224333333333302</v>
       </c>
-      <c r="BV6" s="1">
+      <c r="BV6" s="4">
         <v>0.26916494248560002</v>
       </c>
+      <c r="BW6" s="6">
+        <v>42026</v>
+      </c>
     </row>
-    <row r="7" spans="1:74" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:75" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>2015</v>
       </c>
@@ -2077,23 +2107,26 @@
       <c r="BQ7" s="1">
         <v>88.427999999999997</v>
       </c>
-      <c r="BR7" s="1">
+      <c r="BR7" s="4">
         <v>16.532441039826502</v>
       </c>
-      <c r="BS7" s="1">
+      <c r="BS7" s="4">
         <v>5.1235285714285697</v>
       </c>
-      <c r="BT7" s="1">
+      <c r="BT7" s="4">
         <v>0.165857066666667</v>
       </c>
-      <c r="BU7" s="1">
+      <c r="BU7" s="4">
         <v>7.3012499999999996</v>
       </c>
-      <c r="BV7" s="1">
+      <c r="BV7" s="4">
         <v>0.31224842068563802</v>
       </c>
+      <c r="BW7" s="6">
+        <v>42067</v>
+      </c>
     </row>
-    <row r="8" spans="1:74" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:75" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>2015</v>
       </c>
@@ -2289,23 +2322,26 @@
       <c r="BQ8" s="1">
         <v>113.10175238095199</v>
       </c>
-      <c r="BR8" s="1">
+      <c r="BR8" s="4">
         <v>20.523403423459001</v>
       </c>
-      <c r="BS8" s="1">
+      <c r="BS8" s="4">
         <v>8.2102000000000004</v>
       </c>
-      <c r="BT8" s="1">
+      <c r="BT8" s="4">
         <v>0.37532599999999999</v>
       </c>
-      <c r="BU8" s="1">
+      <c r="BU8" s="4">
         <v>3.3767999999999998</v>
       </c>
-      <c r="BV8" s="2">
+      <c r="BV8" s="5">
         <v>9.88813006212651E-2</v>
       </c>
+      <c r="BW8" s="6">
+        <v>42096</v>
+      </c>
     </row>
-    <row r="9" spans="1:74" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:75" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>2015</v>
       </c>
@@ -2501,23 +2537,26 @@
       <c r="BQ9" s="1">
         <v>163.32438095238101</v>
       </c>
-      <c r="BR9" s="1">
+      <c r="BR9" s="4">
         <v>22.2413750254108</v>
       </c>
-      <c r="BS9" s="1">
+      <c r="BS9" s="4">
         <v>7.5256714285714299</v>
       </c>
-      <c r="BT9" s="1">
+      <c r="BT9" s="4">
         <v>0.108654466666667</v>
       </c>
-      <c r="BU9" s="1">
+      <c r="BU9" s="4">
         <v>7.19133333333333</v>
       </c>
-      <c r="BV9" s="1">
+      <c r="BV9" s="4">
         <v>0.35010482854987302</v>
       </c>
+      <c r="BW9" s="6">
+        <v>42129</v>
+      </c>
     </row>
-    <row r="10" spans="1:74" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:75" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>2015</v>
       </c>
@@ -2713,23 +2752,26 @@
       <c r="BQ10" s="1">
         <v>93.415523809523805</v>
       </c>
-      <c r="BR10" s="1">
+      <c r="BR10" s="4">
         <v>25.931331613278399</v>
       </c>
-      <c r="BS10" s="1">
+      <c r="BS10" s="4">
         <v>6.7103604591836703</v>
       </c>
-      <c r="BT10" s="1">
+      <c r="BT10" s="4">
         <v>0.123437066666667</v>
       </c>
-      <c r="BU10" s="1">
+      <c r="BU10" s="4">
         <v>9.7803333333333295</v>
       </c>
-      <c r="BV10" s="1">
+      <c r="BV10" s="4">
         <v>0.29988639461106198</v>
       </c>
+      <c r="BW10" s="6">
+        <v>42152</v>
+      </c>
     </row>
-    <row r="11" spans="1:74" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:75" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>2015</v>
       </c>
@@ -2925,23 +2967,26 @@
       <c r="BQ11" s="1">
         <v>138.31</v>
       </c>
-      <c r="BR11" s="1">
+      <c r="BR11" s="4">
         <v>24.183299539696101</v>
       </c>
-      <c r="BS11" s="1">
+      <c r="BS11" s="4">
         <v>11.4786238702624</v>
       </c>
-      <c r="BT11" s="1">
+      <c r="BT11" s="4">
         <v>0.11720940000000001</v>
       </c>
-      <c r="BU11" s="1">
+      <c r="BU11" s="4">
         <v>7.0466499999999996</v>
       </c>
-      <c r="BV11" s="1">
+      <c r="BV11" s="4">
         <v>0.40854872051227598</v>
       </c>
+      <c r="BW11" s="6">
+        <v>42178</v>
+      </c>
     </row>
-    <row r="12" spans="1:74" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:75" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>2015</v>
       </c>
@@ -3137,23 +3182,26 @@
       <c r="BQ12" s="1">
         <v>116.054476190476</v>
       </c>
-      <c r="BR12" s="1">
+      <c r="BR12" s="4">
         <v>27.603573107421202</v>
       </c>
-      <c r="BS12" s="1">
+      <c r="BS12" s="4">
         <v>7.0590498542273998</v>
       </c>
-      <c r="BT12" s="1">
+      <c r="BT12" s="4">
         <v>0.10415253333333301</v>
       </c>
-      <c r="BU12" s="1">
+      <c r="BU12" s="4">
         <v>6.5058666666666696</v>
       </c>
-      <c r="BV12" s="1">
+      <c r="BV12" s="4">
         <v>0.39966695734804097</v>
       </c>
+      <c r="BW12" s="6">
+        <v>42206</v>
+      </c>
     </row>
-    <row r="13" spans="1:74" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:75" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>2015</v>
       </c>
@@ -3349,23 +3397,26 @@
       <c r="BQ13" s="1">
         <v>91.526761904761898</v>
       </c>
-      <c r="BR13" s="1">
+      <c r="BR13" s="4">
         <v>25.801995457487099</v>
       </c>
-      <c r="BS13" s="1">
+      <c r="BS13" s="4">
         <v>8.8519428571428591</v>
       </c>
-      <c r="BT13" s="1">
+      <c r="BT13" s="4">
         <v>0.104250066666667</v>
       </c>
-      <c r="BU13" s="1">
+      <c r="BU13" s="4">
         <v>2.95773333333333</v>
       </c>
-      <c r="BV13" s="1">
+      <c r="BV13" s="4">
         <v>0.27088356684692</v>
       </c>
+      <c r="BW13" s="6">
+        <v>42235</v>
+      </c>
     </row>
-    <row r="14" spans="1:74" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:75" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>2015</v>
       </c>
@@ -3546,23 +3597,26 @@
       <c r="BQ14" s="1">
         <v>181.13676190476201</v>
       </c>
-      <c r="BR14" s="1">
+      <c r="BR14" s="4">
         <v>24.3296991035369</v>
       </c>
-      <c r="BS14" s="1">
+      <c r="BS14" s="4">
         <v>13.193009999999999</v>
       </c>
-      <c r="BT14" s="1">
+      <c r="BT14" s="4">
         <v>0.150314266666667</v>
       </c>
-      <c r="BU14" s="1">
+      <c r="BU14" s="4">
         <v>7.343</v>
       </c>
-      <c r="BV14" s="1">
+      <c r="BV14" s="4">
         <v>0.20148167942836001</v>
       </c>
+      <c r="BW14" s="6">
+        <v>42265</v>
+      </c>
     </row>
-    <row r="15" spans="1:74" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:75" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>2015</v>
       </c>
@@ -3758,23 +3812,26 @@
       <c r="BQ15" s="1">
         <v>104.90590476190501</v>
       </c>
-      <c r="BR15" s="1">
+      <c r="BR15" s="4">
         <v>20.094666730190301</v>
       </c>
-      <c r="BS15" s="1">
+      <c r="BS15" s="4">
         <v>7.6655856413994199</v>
       </c>
-      <c r="BT15" s="1">
+      <c r="BT15" s="4">
         <v>0.117681666666667</v>
       </c>
-      <c r="BU15" s="1">
+      <c r="BU15" s="4">
         <v>4.0334666666666701</v>
       </c>
-      <c r="BV15" s="1">
+      <c r="BV15" s="4">
         <v>0.20887891408310799</v>
       </c>
+      <c r="BW15" s="6">
+        <v>42290</v>
+      </c>
     </row>
-    <row r="16" spans="1:74" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:75" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>2015</v>
       </c>
@@ -3970,23 +4027,26 @@
       <c r="BQ16" s="1">
         <v>47.119333333333302</v>
       </c>
-      <c r="BR16" s="1">
+      <c r="BR16" s="4">
         <v>21.857767885259001</v>
       </c>
-      <c r="BS16" s="1">
+      <c r="BS16" s="4">
         <v>6.2467639431486903</v>
       </c>
-      <c r="BT16" s="1">
+      <c r="BT16" s="4">
         <v>0.1086582</v>
       </c>
-      <c r="BU16" s="1">
+      <c r="BU16" s="4">
         <v>4.9626000000000001</v>
       </c>
-      <c r="BV16" s="1">
+      <c r="BV16" s="4">
         <v>0.24120479067238099</v>
       </c>
+      <c r="BW16" s="6">
+        <v>42319</v>
+      </c>
     </row>
-    <row r="17" spans="1:74" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:75" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>2015</v>
       </c>
@@ -4167,23 +4227,26 @@
       <c r="BQ17" s="1">
         <v>86.334952380952402</v>
       </c>
-      <c r="BR17" s="1">
+      <c r="BR17" s="4">
         <v>17.727811021224198</v>
       </c>
-      <c r="BS17" s="1">
+      <c r="BS17" s="4">
         <v>8.9871261297376108</v>
       </c>
-      <c r="BT17" s="1">
+      <c r="BT17" s="4">
         <v>0.12594166666666701</v>
       </c>
-      <c r="BU17" s="1">
+      <c r="BU17" s="4">
         <v>6.1893000000000002</v>
       </c>
-      <c r="BV17" s="1">
+      <c r="BV17" s="4">
         <v>0.26071504268328</v>
       </c>
+      <c r="BW17" s="6">
+        <v>42333</v>
+      </c>
     </row>
-    <row r="18" spans="1:74" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:75" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>2015</v>
       </c>
@@ -4367,23 +4430,26 @@
       <c r="BQ18" s="1">
         <v>112.11723809523799</v>
       </c>
-      <c r="BR18" s="1">
+      <c r="BR18" s="4">
         <v>18.6758092975004</v>
       </c>
-      <c r="BS18" s="1">
+      <c r="BS18" s="4">
         <v>8.2576393221574307</v>
       </c>
-      <c r="BT18" s="1">
+      <c r="BT18" s="4">
         <v>0.138506666666667</v>
       </c>
-      <c r="BU18" s="1">
+      <c r="BU18" s="4">
         <v>2.93085</v>
       </c>
-      <c r="BV18" s="1">
+      <c r="BV18" s="4">
         <v>0.16870298350732499</v>
       </c>
+      <c r="BW18" s="6">
+        <v>42361</v>
+      </c>
     </row>
-    <row r="19" spans="1:74" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:75" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>2016</v>
       </c>
@@ -4567,23 +4633,26 @@
       <c r="BQ19" s="1">
         <v>95.331904761904795</v>
       </c>
-      <c r="BR19" s="1">
+      <c r="BR19" s="4">
         <v>14.3926254151161</v>
       </c>
-      <c r="BS19" s="1">
+      <c r="BS19" s="4">
         <v>6.9486112499999999</v>
       </c>
-      <c r="BT19" s="1">
+      <c r="BT19" s="4">
         <v>0.1</v>
       </c>
-      <c r="BU19" s="1">
+      <c r="BU19" s="4">
         <v>6.01905</v>
       </c>
-      <c r="BV19" s="1">
+      <c r="BV19" s="4">
         <v>0.38478509074828199</v>
       </c>
+      <c r="BW19" s="6">
+        <v>42383</v>
+      </c>
     </row>
-    <row r="20" spans="1:74" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:75" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>2016</v>
       </c>
@@ -4767,23 +4836,26 @@
       <c r="BQ20" s="1">
         <v>130.556761904762</v>
       </c>
-      <c r="BR20" s="1">
+      <c r="BR20" s="4">
         <v>15.3140795351609</v>
       </c>
-      <c r="BS20" s="1">
+      <c r="BS20" s="4">
         <v>8.5242116836734692</v>
       </c>
-      <c r="BT20" s="1">
+      <c r="BT20" s="4">
         <v>0.12</v>
       </c>
-      <c r="BU20" s="1">
+      <c r="BU20" s="4">
         <v>4.2476500000000001</v>
       </c>
-      <c r="BV20" s="1">
+      <c r="BV20" s="4">
         <v>0.76709799286381197</v>
       </c>
+      <c r="BW20" s="6">
+        <v>42403</v>
+      </c>
     </row>
-    <row r="21" spans="1:74" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:75" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>2016</v>
       </c>
@@ -4967,23 +5039,26 @@
       <c r="BQ21" s="1">
         <v>132.04152380952399</v>
       </c>
-      <c r="BR21" s="1">
+      <c r="BR21" s="4">
         <v>17.573685501384102</v>
       </c>
-      <c r="BS21" s="1">
+      <c r="BS21" s="4">
         <v>12.8077011428571</v>
       </c>
-      <c r="BT21" s="1">
+      <c r="BT21" s="4">
         <v>0.18</v>
       </c>
-      <c r="BU21" s="1">
+      <c r="BU21" s="4">
         <v>4.402825</v>
       </c>
-      <c r="BV21" s="1">
+      <c r="BV21" s="4">
         <v>0.65928759452312002</v>
       </c>
+      <c r="BW21" s="6">
+        <v>42438</v>
+      </c>
     </row>
-    <row r="22" spans="1:74" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:75" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>2016</v>
       </c>
@@ -5167,23 +5242,26 @@
       <c r="BQ22" s="1">
         <v>59.220666666666702</v>
       </c>
-      <c r="BR22" s="1">
+      <c r="BR22" s="4">
         <v>17.3381486600919</v>
       </c>
-      <c r="BS22" s="1">
+      <c r="BS22" s="4">
         <v>20.935898914285701</v>
       </c>
-      <c r="BT22" s="1">
+      <c r="BT22" s="4">
         <v>0.14000000000000001</v>
       </c>
-      <c r="BU22" s="1">
+      <c r="BU22" s="4">
         <v>4.0930499999999999</v>
       </c>
-      <c r="BV22" s="1">
+      <c r="BV22" s="4">
         <v>0.79982722453802002</v>
       </c>
+      <c r="BW22" s="6">
+        <v>42466</v>
+      </c>
     </row>
-    <row r="23" spans="1:74" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:75" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>2016</v>
       </c>
@@ -5367,23 +5445,26 @@
       <c r="BQ23" s="1">
         <v>107.246571428571</v>
       </c>
-      <c r="BR23" s="1">
+      <c r="BR23" s="4">
         <v>22.061375181831298</v>
       </c>
-      <c r="BS23" s="1">
+      <c r="BS23" s="4">
         <v>18.17032</v>
       </c>
-      <c r="BT23" s="1">
+      <c r="BT23" s="4">
         <v>0.15</v>
       </c>
-      <c r="BU23" s="1">
+      <c r="BU23" s="4">
         <v>5.0242500000000003</v>
       </c>
-      <c r="BV23" s="1">
+      <c r="BV23" s="4">
         <v>0.614425758178336</v>
       </c>
+      <c r="BW23" s="6">
+        <v>42480</v>
+      </c>
     </row>
-    <row r="24" spans="1:74" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:75" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>2016</v>
       </c>
@@ -5567,23 +5648,26 @@
       <c r="BQ24" s="1">
         <v>88.0258095238095</v>
       </c>
-      <c r="BR24" s="1">
+      <c r="BR24" s="4">
         <v>18.363632128557899</v>
       </c>
-      <c r="BS24" s="1">
+      <c r="BS24" s="4">
         <v>19.831090408163298</v>
       </c>
-      <c r="BT24" s="1">
+      <c r="BT24" s="4">
         <v>0.11</v>
       </c>
-      <c r="BU24" s="1">
+      <c r="BU24" s="4">
         <v>4.1903375</v>
       </c>
-      <c r="BV24" s="1">
+      <c r="BV24" s="4">
         <v>0.74873091767801403</v>
       </c>
+      <c r="BW24" s="6">
+        <v>42508</v>
+      </c>
     </row>
-    <row r="25" spans="1:74" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:75" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>2016</v>
       </c>
@@ -5731,23 +5815,26 @@
       <c r="BQ25" s="1">
         <v>103.058380952381</v>
       </c>
-      <c r="BR25" s="1">
+      <c r="BR25" s="4">
         <v>25.7605388713968</v>
       </c>
-      <c r="BS25" s="1">
+      <c r="BS25" s="4">
         <v>16.171696000000001</v>
       </c>
-      <c r="BT25" s="1">
+      <c r="BT25" s="4">
         <v>0.15</v>
       </c>
-      <c r="BU25" s="1">
+      <c r="BU25" s="4">
         <v>2.7365249999999999</v>
       </c>
-      <c r="BV25" s="1">
+      <c r="BV25" s="4">
         <v>1.1026077380350301</v>
       </c>
+      <c r="BW25" s="6">
+        <v>42522</v>
+      </c>
     </row>
-    <row r="26" spans="1:74" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:75" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>2016</v>
       </c>
@@ -5925,8 +6012,16 @@
       <c r="BQ26" s="1">
         <v>159.31114285714301</v>
       </c>
+      <c r="BR26" s="4"/>
+      <c r="BS26" s="4"/>
+      <c r="BT26" s="4"/>
+      <c r="BU26" s="4"/>
+      <c r="BV26" s="4"/>
+      <c r="BW26" s="6">
+        <v>42550</v>
+      </c>
     </row>
-    <row r="27" spans="1:74" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:75" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>2016</v>
       </c>
@@ -6104,8 +6199,16 @@
       <c r="BQ27" s="1">
         <v>222.06742857142899</v>
       </c>
+      <c r="BR27" s="4"/>
+      <c r="BS27" s="4"/>
+      <c r="BT27" s="4"/>
+      <c r="BU27" s="4"/>
+      <c r="BV27" s="4"/>
+      <c r="BW27" s="6">
+        <v>42571</v>
+      </c>
     </row>
-    <row r="28" spans="1:74" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:75" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>2016</v>
       </c>
@@ -6283,8 +6386,16 @@
       <c r="BQ28" s="1">
         <v>304.01295238095202</v>
       </c>
+      <c r="BR28" s="4"/>
+      <c r="BS28" s="4"/>
+      <c r="BT28" s="4"/>
+      <c r="BU28" s="4"/>
+      <c r="BV28" s="4"/>
+      <c r="BW28" s="6">
+        <v>42600</v>
+      </c>
     </row>
-    <row r="29" spans="1:74" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:75" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>2016</v>
       </c>
@@ -6453,8 +6564,16 @@
       <c r="BQ29" s="1">
         <v>278.44571428571402</v>
       </c>
+      <c r="BR29" s="4"/>
+      <c r="BS29" s="4"/>
+      <c r="BT29" s="4"/>
+      <c r="BU29" s="4"/>
+      <c r="BV29" s="4"/>
+      <c r="BW29" s="6">
+        <v>42625</v>
+      </c>
     </row>
-    <row r="30" spans="1:74" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:75" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>2016</v>
       </c>
@@ -6629,8 +6748,16 @@
       <c r="BQ30" s="1">
         <v>228.07828571428601</v>
       </c>
+      <c r="BR30" s="4"/>
+      <c r="BS30" s="4"/>
+      <c r="BT30" s="4"/>
+      <c r="BU30" s="4"/>
+      <c r="BV30" s="4"/>
+      <c r="BW30" s="6">
+        <v>42655</v>
+      </c>
     </row>
-    <row r="31" spans="1:74" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:75" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>2016</v>
       </c>
@@ -6805,8 +6932,16 @@
       <c r="BQ31" s="1">
         <v>225.26609523809501</v>
       </c>
+      <c r="BR31" s="4"/>
+      <c r="BS31" s="4"/>
+      <c r="BT31" s="4"/>
+      <c r="BU31" s="4"/>
+      <c r="BV31" s="4"/>
+      <c r="BW31" s="6">
+        <v>42691</v>
+      </c>
     </row>
-    <row r="32" spans="1:74" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:75" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>2016</v>
       </c>
@@ -6981,8 +7116,16 @@
       <c r="BQ32" s="1">
         <v>892.30971428571399</v>
       </c>
+      <c r="BR32" s="4"/>
+      <c r="BS32" s="4"/>
+      <c r="BT32" s="4"/>
+      <c r="BU32" s="4"/>
+      <c r="BV32" s="4"/>
+      <c r="BW32" s="6">
+        <v>42726</v>
+      </c>
     </row>
-    <row r="33" spans="1:69" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:75" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>2017</v>
       </c>
@@ -7156,6 +7299,14 @@
       </c>
       <c r="BQ33" s="1">
         <v>437.994666666667</v>
+      </c>
+      <c r="BR33" s="4"/>
+      <c r="BS33" s="4"/>
+      <c r="BT33" s="4"/>
+      <c r="BU33" s="4"/>
+      <c r="BV33" s="4"/>
+      <c r="BW33" s="6">
+        <v>42775</v>
       </c>
     </row>
   </sheetData>
